--- a/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,13 +955,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -1000,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,15 +1018,14 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,14 +1071,11 @@
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -1104,9 +1100,9 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1127,7 +1123,7 @@
         <v>9900</v>
       </c>
       <c r="H3" s="6">
-        <v>41.94</v>
+        <v>42.74</v>
       </c>
       <c r="I3" s="6">
         <v>100</v>
@@ -1136,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>141.94</v>
+        <v>142.74</v>
       </c>
       <c r="L3" s="6">
-        <v>141.94</v>
+        <v>142.74</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>141.94</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>142.74</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1181,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>9903.23</v>
+        <v>9903.25</v>
       </c>
       <c r="L4" s="9">
-        <v>9903.23</v>
+        <v>9903.25</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -1192,7 +1188,7 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1204,9 +1200,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1212,7 @@
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1225,7 +1221,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,9 +1253,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>33</v>
+        <v>4586</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1271,13 +1267,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="9">
-        <v>10045.17</v>
+        <v>10045.99</v>
       </c>
       <c r="F2" s="8">
         <v>10000</v>
       </c>
       <c r="G2" s="6">
-        <v>45.17</v>
+        <v>45.99</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1288,12 +1284,10 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>29</v>
+        <v>4584</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1314,20 +1308,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>10000</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>27</v>
+        <v>4583</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1356,8 +1348,6 @@
       <c r="J4" s="8">
         <v>10000</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -372,12 +372,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,23 +758,23 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="17">
@@ -880,7 +882,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,10 +937,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>45.99</v>
+        <v>46.03</v>
       </c>
       <c r="B3" s="6">
-        <v>45.99</v>
+        <v>46.03</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -955,13 +957,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -975,13 +977,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -1000,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,12 +1022,12 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,11 +1073,14 @@
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -1100,95 +1105,54 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7">
-        <v>42018</v>
+        <v>42019</v>
       </c>
       <c r="D3" s="7">
         <v>42019</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>46.03</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="8">
-        <v>9900</v>
-      </c>
-      <c r="H3" s="6">
-        <v>42.74</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="K3" s="9">
+        <v>10146.030000000001</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10046.030000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>100</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>142.74</v>
-      </c>
-      <c r="L3" s="6">
-        <v>142.74</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>142.74</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42019</v>
-      </c>
-      <c r="D4" s="7">
-        <v>42019</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8">
-        <v>9900</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9903.25</v>
-      </c>
-      <c r="L4" s="9">
-        <v>9903.25</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1200,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1185,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1253,9 +1217,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4586</v>
+        <v>131</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1267,13 +1231,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="9">
-        <v>10045.99</v>
+        <v>10046.030000000001</v>
       </c>
       <c r="F2" s="8">
         <v>10000</v>
       </c>
       <c r="G2" s="6">
-        <v>45.99</v>
+        <v>46.03</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1284,10 +1248,12 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4584</v>
+        <v>129</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1308,18 +1274,20 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>100</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4583</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1348,6 +1316,8 @@
       <c r="J4" s="8">
         <v>10000</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,8 +1366,8 @@
       <c r="A4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="20">
-        <v>10045.99</v>
+      <c r="B4" s="23">
+        <v>10046.030000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH-Newcreateloan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -198,31 +198,34 @@
     <t>waittopageload1</t>
   </si>
   <si>
+    <t>clickonsubmit</t>
+  </si>
+  <si>
+    <t>Repayment</t>
+  </si>
+  <si>
+    <t>selectcharges</t>
+  </si>
+  <si>
+    <t>SpecifiedDueDatePenalty-Flat,$</t>
+  </si>
+  <si>
+    <t>clickonplusbutton</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>insertdate</t>
+  </si>
+  <si>
+    <t>3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH</t>
+  </si>
+  <si>
     <t>repaymenttransactionamount</t>
   </si>
   <si>
-    <t>clickonsubmit</t>
-  </si>
-  <si>
-    <t>Repayment</t>
-  </si>
-  <si>
-    <t>selectcharges</t>
-  </si>
-  <si>
-    <t>SpecifiedDueDatePenalty-Flat,$</t>
-  </si>
-  <si>
-    <t>clickonplusbutton</t>
-  </si>
-  <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>insertdate</t>
-  </si>
-  <si>
-    <t>3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-SP-FLAT-PENALTY-WaivePenalty-PREPAY-CASH</t>
+    <t>waittopageload</t>
   </si>
 </sst>
 </file>
@@ -377,9 +380,7 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,7 +707,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,23 +760,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="17">
         <v>42018</v>
@@ -1228,7 +1229,7 @@
         <v>42019</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9">
         <v>10046.030000000001</v>
@@ -1326,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,34 +1348,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B3" s="19">
         <v>42019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="18">
-        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="23">
-        <v>10046.030000000001</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="23">
+        <v>10046.030000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>56</v>
       </c>
     </row>
